--- a/Fiche de contact équipe (à completer obligatoirement par tous).xlsx
+++ b/Fiche de contact équipe (à completer obligatoirement par tous).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Nom/Prénom</t>
   </si>
@@ -42,9 +42,6 @@
     <t>STALTER Marianne</t>
   </si>
   <si>
-    <t>DEMOULIN Marianne</t>
-  </si>
-  <si>
     <t>MEURILLON Grégoire</t>
   </si>
   <si>
@@ -61,15 +58,6 @@
   </si>
   <si>
     <t>marianne.stalter@epsi.fr</t>
-  </si>
-  <si>
-    <t>!! PRIERE D'INDIQUER UN MAIL QUE VOUS CONSULTEZ ET AUQUEL VOUS REPONDREZ !!</t>
-  </si>
-  <si>
-    <t>marianne.demoulin26</t>
-  </si>
-  <si>
-    <t>marianne.demoulin1@gmail.com</t>
   </si>
   <si>
     <t>remy.maurice@epsi.fr</t>
@@ -404,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,7 +427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F14"/>
+  <dimension ref="C5:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,10 +685,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3">
         <v>33635561028</v>
@@ -711,25 +699,27 @@
         <v>8</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="3">
+        <v>33620704902</v>
+      </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3">
-        <v>33620704902</v>
+        <v>33649867408</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
@@ -737,60 +727,43 @@
         <v>10</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3">
+        <v>33625620850</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3">
-        <v>33649867408</v>
+      <c r="F12" s="6">
+        <v>33677134746</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3">
-        <v>33625620850</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6">
-        <v>33677134746</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="15" t="s">
-        <v>15</v>
-      </c>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1"/>
     <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D9" r:id="rId3"/>
-    <hyperlink ref="D12" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
-    <hyperlink ref="D10" r:id="rId6"/>
-    <hyperlink ref="D13" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D10" r:id="rId4"/>
+    <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
